--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed4/result_data_KNN.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.895999999999999</v>
+        <v>8.606</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.128</v>
+        <v>-7.893000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.010000000000002</v>
+        <v>-8.019</v>
       </c>
     </row>
     <row r="8">
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.798</v>
+        <v>-21.775</v>
       </c>
       <c r="B9" t="n">
-        <v>5.468</v>
+        <v>5.554</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.376</v>
+        <v>-11.305</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -586,13 +586,13 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.772</v>
+        <v>5.475000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.824</v>
+        <v>-7.553</v>
       </c>
     </row>
     <row r="12">
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.09</v>
+        <v>-21.844</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -648,15 +648,15 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.004000000000001</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.044</v>
+        <v>-20.935</v>
       </c>
       <c r="B16" t="n">
-        <v>5.334000000000001</v>
+        <v>5.632</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.442</v>
+        <v>-21.798</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.19</v>
+        <v>-20.027</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.598</v>
+        <v>-12.55</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,13 +754,13 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.224</v>
+        <v>7.648000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.315999999999999</v>
+        <v>-7.805</v>
       </c>
     </row>
     <row r="24">
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.199999999999999</v>
+        <v>6.493</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.206</v>
+        <v>-21.108</v>
       </c>
       <c r="B26" t="n">
-        <v>6.584000000000001</v>
+        <v>6.281999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.958</v>
+        <v>-21.954</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.678</v>
+        <v>-13.09</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.61</v>
+        <v>-21.314</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.744</v>
+        <v>-12.139</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.48</v>
+        <v>-7.407000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.502</v>
+        <v>-12.492</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>8.215999999999999</v>
+        <v>7.324000000000001</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.312</v>
+        <v>-21.217</v>
       </c>
       <c r="B35" t="n">
-        <v>5.684</v>
+        <v>5.564</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.388</v>
+        <v>-20.483</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.954</v>
+        <v>-12.086</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -967,10 +967,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.2</v>
+        <v>-12.279</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.43</v>
+        <v>-7.847</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.322</v>
+        <v>-12.594</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.028000000000002</v>
+        <v>-7.982000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.998</v>
+        <v>-12.546</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.566</v>
+        <v>-7.536</v>
       </c>
     </row>
     <row r="44">
@@ -1048,7 +1048,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.89</v>
+        <v>5.840999999999999</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.718</v>
+        <v>-21.727</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-12.878</v>
+        <v>-12.954</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.431999999999999</v>
+        <v>-7.451000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1104,10 +1104,10 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.68</v>
+        <v>5.757000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.79</v>
+        <v>-11.573</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.346000000000001</v>
+        <v>6.434</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.408</v>
+        <v>-11.462</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.056</v>
+        <v>5.8</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.936</v>
+        <v>-22.063</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1219,7 +1219,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.894</v>
+        <v>-12.5</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.956</v>
+        <v>-21.921</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.228</v>
+        <v>-12.812</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1289,7 +1289,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.03</v>
+        <v>-12.937</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-12.258</v>
+        <v>-11.557</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>6.403999999999999</v>
+        <v>5.973000000000001</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>6.578</v>
+        <v>5.540999999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.598</v>
+        <v>-21.408</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.794</v>
+        <v>6.356</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1485,15 +1485,15 @@
         <v>8.09</v>
       </c>
       <c r="C75" t="n">
-        <v>-11.612</v>
+        <v>-12.294</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.122</v>
+        <v>-7.485000000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.372</v>
+        <v>-20.428</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.174</v>
+        <v>-20.808</v>
       </c>
       <c r="B78" t="n">
-        <v>6.645999999999999</v>
+        <v>6.657999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.135999999999999</v>
+        <v>7.055</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.21</v>
+        <v>-21.408</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.492</v>
+        <v>-11.8</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.608</v>
+        <v>-21.823</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.878</v>
+        <v>-11.021</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1706,13 +1706,13 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.652</v>
+        <v>5.499000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.712000000000001</v>
+        <v>-7.769999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1726,18 +1726,18 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.372</v>
+        <v>-7.432</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.236</v>
+        <v>-21.325</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.254</v>
+        <v>-12.15</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.524000000000001</v>
+        <v>-7.536</v>
       </c>
     </row>
     <row r="96">
@@ -1782,15 +1782,15 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.248</v>
+        <v>-7.128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.038</v>
+        <v>-21.34</v>
       </c>
       <c r="B97" t="n">
-        <v>5.642</v>
+        <v>5.016</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.086</v>
+        <v>5.824000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1863,7 +1863,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.592</v>
+        <v>-12.756</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1880,7 +1880,7 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.040000000000001</v>
+        <v>-7.605</v>
       </c>
     </row>
     <row r="104">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>7.196</v>
+        <v>7.816</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1905,10 +1905,10 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-13.02</v>
+        <v>-12.385</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.994</v>
+        <v>-7.278</v>
       </c>
     </row>
   </sheetData>
